--- a/Proyecto/PobladaExcel/EventosF1_E1xlsx.xlsx
+++ b/Proyecto/PobladaExcel/EventosF1_E1xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateo\Desktop\MBDA\MBDA-\Proyecto\PobladaExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39818631-45B1-4829-A0E6-D90E3340D95F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A2CC50-F2B8-4C48-8808-E2A36736F9B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{83CC4EBD-00A9-4452-AF73-2800AB427AE5}"/>
   </bookViews>
@@ -89,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4553A4-A57A-46A7-8ADD-B65784DA987F}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,1451 +419,1452 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
         <v>14</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>758865285</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
         <v>38</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>7020950151</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
         <v>52</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>758865285</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
         <v>90</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>5940422660</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>9073392748</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>9073392748</v>
       </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>7582069659</v>
       </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
         <v>6540172698</v>
       </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>4359639120</v>
       </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>7446594805</v>
       </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>8561544339</v>
       </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>103955891</v>
       </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>8425971880</v>
       </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>7241835168</v>
       </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>758865285</v>
       </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
         <v>18</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>9413409560</v>
       </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>4192798673</v>
       </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
         <v>19</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>5940422660</v>
       </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>4923159094</v>
       </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
         <v>21</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>8425971880</v>
       </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
         <v>22</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>9812110706</v>
       </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
         <v>24</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>7333255169</v>
       </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
         <v>23</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>7446594805</v>
       </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
         <v>25</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>2998216241</v>
       </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
         <v>27</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>991444853</v>
       </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>7446594805</v>
       </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
         <v>28</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>8425971880</v>
       </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
         <v>29</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>9413409560</v>
       </c>
-      <c r="D29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
         <v>30</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>7446594805</v>
       </c>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
         <v>31</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>9073392748</v>
       </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
         <v>32</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>6540172698</v>
       </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
         <v>36</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>9812110706</v>
       </c>
-      <c r="D33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
         <v>35</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>1051499341</v>
       </c>
-      <c r="D34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
         <v>37</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>9812110706</v>
       </c>
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35">
+      <c r="D35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
         <v>38</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>4192798673</v>
       </c>
-      <c r="D36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
         <v>39</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>6540172698</v>
       </c>
-      <c r="D37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37">
+      <c r="D37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
         <v>39</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>758865285</v>
       </c>
-      <c r="D38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38">
+      <c r="D38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1">
         <v>45</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>103955891</v>
       </c>
-      <c r="D39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39">
+      <c r="D39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
         <v>40</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>7020950151</v>
       </c>
-      <c r="D40" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40">
+      <c r="D40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1">
         <v>41</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>7446594805</v>
       </c>
-      <c r="D41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1">
         <v>42</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>4359639120</v>
       </c>
-      <c r="D42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42">
+      <c r="D42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43">
-        <v>46</v>
-      </c>
-      <c r="C43">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1">
+        <v>44.9</v>
+      </c>
+      <c r="C43" s="1">
         <v>4923159094</v>
       </c>
-      <c r="D43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43">
+      <c r="D43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1">
         <v>33</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>3848434383</v>
       </c>
-      <c r="D44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44">
+      <c r="D44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1">
         <v>47</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>4078192125</v>
       </c>
-      <c r="D45" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45">
+      <c r="D45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1">
         <v>48</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>7582069659</v>
       </c>
-      <c r="D46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46">
+      <c r="D46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1">
         <v>49</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>7558163961</v>
       </c>
-      <c r="D47" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47">
+      <c r="D47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1">
         <v>50</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>758865285</v>
       </c>
-      <c r="D48" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48">
+      <c r="D48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1">
         <v>52</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>9073392748</v>
       </c>
-      <c r="D49" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49">
+      <c r="D49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="1">
         <v>56</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>7582069659</v>
       </c>
-      <c r="D50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50">
+      <c r="D50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1">
         <v>59</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>3754972420</v>
       </c>
-      <c r="D51" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51">
+      <c r="D51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1">
         <v>50</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>758865285</v>
       </c>
-      <c r="D52" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52">
+      <c r="D52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1">
         <v>64</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>713217454</v>
       </c>
-      <c r="D53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53">
+      <c r="D53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="1">
         <v>51</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>103955891</v>
       </c>
-      <c r="D54" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54">
+      <c r="D54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1">
         <v>53</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>4359639120</v>
       </c>
-      <c r="D55" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55">
+      <c r="D55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="1">
         <v>54</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>4192798673</v>
       </c>
-      <c r="D56" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56">
+      <c r="D56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="1">
         <v>55</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>7446594805</v>
       </c>
-      <c r="D57" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57">
+      <c r="D57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="1">
         <v>57</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>6540172698</v>
       </c>
-      <c r="D58" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58">
+      <c r="D58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1">
         <v>58</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>3848434383</v>
       </c>
-      <c r="D59" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59">
+      <c r="D59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60">
+      <c r="A60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="1">
         <v>60</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>3848434383</v>
       </c>
-      <c r="D60" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60">
+      <c r="D60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61">
+      <c r="A61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="1">
         <v>61</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>991444853</v>
       </c>
-      <c r="D61" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61">
+      <c r="D61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62">
+      <c r="A62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="1">
         <v>62</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>8561544339</v>
       </c>
-      <c r="D62" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62">
+      <c r="D62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63">
+      <c r="A63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="1">
         <v>63</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>7558163961</v>
       </c>
-      <c r="D63" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63">
+      <c r="D63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64">
+      <c r="A64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="1">
         <v>70</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>713217454</v>
       </c>
-      <c r="D64" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64">
+      <c r="D64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65">
+      <c r="A65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="1">
         <v>65</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>4451764485</v>
       </c>
-      <c r="D65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65">
+      <c r="D65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66">
+      <c r="A66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="1">
         <v>71</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>7582069659</v>
       </c>
-      <c r="D66" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66">
+      <c r="D66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67">
+      <c r="A67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="1">
         <v>74</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>8597913327</v>
       </c>
-      <c r="D67" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67">
+      <c r="D67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68">
+      <c r="A68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="1">
         <v>75</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>5940422660</v>
       </c>
-      <c r="D68" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68">
+      <c r="D68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69">
+      <c r="A69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="1">
         <v>72</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>5808091049</v>
       </c>
-      <c r="D69" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69">
+      <c r="D69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70">
+      <c r="A70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="1">
         <v>76</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>9413409560</v>
       </c>
-      <c r="D70" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70">
+      <c r="D70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71">
+      <c r="A71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="1">
         <v>80</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>6540172698</v>
       </c>
-      <c r="D71" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71">
+      <c r="D71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72">
+      <c r="A72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="1">
         <v>79</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>7241835168</v>
       </c>
-      <c r="D72" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72">
+      <c r="D72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73">
+      <c r="A73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="1">
         <v>82</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>8561544339</v>
       </c>
-      <c r="D73" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73">
+      <c r="D73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74">
+      <c r="A74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="1">
         <v>83</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>4359639120</v>
       </c>
-      <c r="D74" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74">
+      <c r="D74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75">
+      <c r="A75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="1">
         <v>77</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>3754972420</v>
       </c>
-      <c r="D75" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75">
+      <c r="D75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76">
+      <c r="A76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="1">
         <v>84</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>8425971880</v>
       </c>
-      <c r="D76" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76">
+      <c r="D76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77">
+      <c r="A77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="1">
         <v>85</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>7582069659</v>
       </c>
-      <c r="D77" t="s">
-        <v>4</v>
-      </c>
-      <c r="E77">
+      <c r="D77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78">
+      <c r="A78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="1">
         <v>81</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>103955891</v>
       </c>
-      <c r="D78" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78">
+      <c r="D78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79">
+      <c r="A79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="1">
         <v>86</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>3848434383</v>
       </c>
-      <c r="D79" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79">
+      <c r="D79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>5</v>
-      </c>
-      <c r="B80">
+      <c r="A80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="1">
         <v>91</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>5105300751</v>
       </c>
-      <c r="D80" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80">
+      <c r="D80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81">
+      <c r="A81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="1">
         <v>87</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>356865033</v>
       </c>
-      <c r="D81" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81">
+      <c r="D81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82">
+      <c r="A82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="1">
         <v>87</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>8597913327</v>
       </c>
-      <c r="D82" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82">
+      <c r="D82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>5</v>
-      </c>
-      <c r="B83">
+      <c r="A83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
         <v>92</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>758865285</v>
       </c>
-      <c r="D83" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83">
+      <c r="D83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84">
+      <c r="A84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
         <v>88</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>6891611059</v>
       </c>
-      <c r="D84" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84">
+      <c r="D84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85">
+      <c r="A85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
         <v>93</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>7582069659</v>
       </c>
-      <c r="D85" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85">
+      <c r="D85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>